--- a/public/excels/ImportNhaDong.xlsx
+++ b/public/excels/ImportNhaDong.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339D1A2F-B4D2-4853-907E-05B876CEF8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +46,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,7 +81,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,32 +361,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -393,7 +397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -404,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -417,5 +421,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>